--- a/2022/SAMSUNG/OCTOBER/13.10.2022/SAMSUNG Bank Statement OCT-2022.xlsx
+++ b/2022/SAMSUNG/OCTOBER/13.10.2022/SAMSUNG Bank Statement OCT-2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="March 2021" sheetId="7" state="hidden" r:id="rId1"/>
@@ -3493,15 +3493,24 @@
     <xf numFmtId="0" fontId="35" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="48" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="37" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3532,14 +3541,14 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="48" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3584,15 +3593,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9592,11 +9592,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -9611,6 +9606,11 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9623,8 +9623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CR1319"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D93" sqref="D93"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C24" sqref="C23:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -9650,14 +9650,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:96" ht="19.5">
-      <c r="A1" s="421" t="s">
+      <c r="A1" s="424" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="422"/>
-      <c r="C1" s="422"/>
-      <c r="D1" s="422"/>
-      <c r="E1" s="422"/>
-      <c r="F1" s="423"/>
+      <c r="B1" s="425"/>
+      <c r="C1" s="425"/>
+      <c r="D1" s="425"/>
+      <c r="E1" s="425"/>
+      <c r="F1" s="426"/>
       <c r="G1" s="54"/>
       <c r="H1" s="132"/>
       <c r="I1" s="132"/>
@@ -9750,14 +9750,14 @@
       <c r="CR1" s="127"/>
     </row>
     <row r="2" spans="1:96" ht="15" customHeight="1">
-      <c r="A2" s="424" t="s">
+      <c r="A2" s="427" t="s">
         <v>223</v>
       </c>
-      <c r="B2" s="425"/>
-      <c r="C2" s="425"/>
-      <c r="D2" s="425"/>
-      <c r="E2" s="425"/>
-      <c r="F2" s="426"/>
+      <c r="B2" s="428"/>
+      <c r="C2" s="428"/>
+      <c r="D2" s="428"/>
+      <c r="E2" s="428"/>
+      <c r="F2" s="429"/>
       <c r="G2" s="54"/>
       <c r="H2" s="132"/>
       <c r="I2" s="132"/>
@@ -9850,14 +9850,14 @@
       <c r="CR2" s="127"/>
     </row>
     <row r="3" spans="1:96" ht="13.5" thickBot="1">
-      <c r="A3" s="427" t="s">
+      <c r="A3" s="430" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="428"/>
-      <c r="C3" s="428"/>
-      <c r="D3" s="428"/>
-      <c r="E3" s="428"/>
-      <c r="F3" s="429"/>
+      <c r="B3" s="431"/>
+      <c r="C3" s="431"/>
+      <c r="D3" s="431"/>
+      <c r="E3" s="431"/>
+      <c r="F3" s="432"/>
       <c r="G3" s="54"/>
       <c r="H3" s="132"/>
       <c r="I3" s="132"/>
@@ -11268,14 +11268,14 @@
         <v>281155</v>
       </c>
       <c r="C16" s="47">
-        <v>172280</v>
+        <v>226880</v>
       </c>
       <c r="D16" s="44">
         <v>20</v>
       </c>
       <c r="E16" s="44">
         <f t="shared" si="0"/>
-        <v>172300</v>
+        <v>226900</v>
       </c>
       <c r="F16" s="280"/>
       <c r="G16" s="137"/>
@@ -12995,7 +12995,7 @@
       </c>
       <c r="C33" s="215">
         <f>SUM(C5:C32)</f>
-        <v>4225426</v>
+        <v>4280026</v>
       </c>
       <c r="D33" s="214">
         <f>SUM(D5:D32)</f>
@@ -13003,11 +13003,11 @@
       </c>
       <c r="E33" s="214">
         <f>SUM(E5:E32)</f>
-        <v>4251621</v>
+        <v>4306221</v>
       </c>
       <c r="F33" s="214">
         <f>B33-E33</f>
-        <v>-642615</v>
+        <v>-697215</v>
       </c>
       <c r="G33" s="128"/>
       <c r="H33" s="129"/>
@@ -13200,12 +13200,12 @@
     </row>
     <row r="35" spans="1:96" ht="13.5" thickBot="1">
       <c r="A35" s="122"/>
-      <c r="B35" s="432" t="s">
+      <c r="B35" s="421" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="432"/>
-      <c r="D35" s="432"/>
-      <c r="E35" s="432"/>
+      <c r="C35" s="421"/>
+      <c r="D35" s="421"/>
+      <c r="E35" s="421"/>
       <c r="F35" s="123"/>
       <c r="G35" s="128"/>
       <c r="H35" s="129"/>
@@ -14064,9 +14064,9 @@
       <c r="D43" s="188"/>
       <c r="E43" s="160"/>
       <c r="F43" s="123"/>
-      <c r="G43" s="417"/>
-      <c r="H43" s="417"/>
-      <c r="I43" s="417"/>
+      <c r="G43" s="422"/>
+      <c r="H43" s="422"/>
+      <c r="I43" s="422"/>
       <c r="J43" s="54"/>
       <c r="K43" s="132"/>
       <c r="L43" s="54"/>
@@ -17509,7 +17509,7 @@
       </c>
       <c r="C73" s="240"/>
       <c r="D73" s="241">
-        <v>416163</v>
+        <v>361563</v>
       </c>
       <c r="E73" s="243" t="s">
         <v>269</v>
@@ -19555,14 +19555,14 @@
       <c r="CR90" s="127"/>
     </row>
     <row r="91" spans="1:96" ht="13.5" thickBot="1">
-      <c r="A91" s="418" t="s">
+      <c r="A91" s="419" t="s">
         <v>24</v>
       </c>
-      <c r="B91" s="419"/>
-      <c r="C91" s="420"/>
+      <c r="B91" s="420"/>
+      <c r="C91" s="423"/>
       <c r="D91" s="191">
         <f>SUM(D37:D90)</f>
-        <v>5162069</v>
+        <v>5107469</v>
       </c>
       <c r="E91" s="187"/>
       <c r="F91" s="127"/>
@@ -19763,14 +19763,14 @@
       <c r="CR92" s="127"/>
     </row>
     <row r="93" spans="1:96" ht="13.5" thickBot="1">
-      <c r="A93" s="418" t="s">
+      <c r="A93" s="419" t="s">
         <v>25</v>
       </c>
-      <c r="B93" s="419"/>
-      <c r="C93" s="419"/>
+      <c r="B93" s="420"/>
+      <c r="C93" s="420"/>
       <c r="D93" s="191">
         <f>D91+L93</f>
-        <v>5162069</v>
+        <v>5107469</v>
       </c>
       <c r="E93" s="187"/>
       <c r="F93" s="127"/>
@@ -19973,11 +19973,11 @@
       <c r="CR94" s="127"/>
     </row>
     <row r="95" spans="1:96" ht="15.75">
-      <c r="A95" s="430" t="s">
+      <c r="A95" s="417" t="s">
         <v>206</v>
       </c>
-      <c r="B95" s="430"/>
-      <c r="C95" s="430"/>
+      <c r="B95" s="417"/>
+      <c r="C95" s="417"/>
       <c r="D95" s="359" t="s">
         <v>212</v>
       </c>
@@ -20597,11 +20597,11 @@
       <c r="CR100" s="127"/>
     </row>
     <row r="101" spans="1:96" s="46" customFormat="1" ht="15.75">
-      <c r="A101" s="431" t="s">
+      <c r="A101" s="418" t="s">
         <v>207</v>
       </c>
-      <c r="B101" s="431"/>
-      <c r="C101" s="431"/>
+      <c r="B101" s="418"/>
+      <c r="C101" s="418"/>
       <c r="D101" s="359" t="s">
         <v>212</v>
       </c>
@@ -20856,11 +20856,11 @@
       <c r="W105" s="54"/>
     </row>
     <row r="106" spans="1:96" s="127" customFormat="1" ht="15.75">
-      <c r="A106" s="431" t="s">
+      <c r="A106" s="418" t="s">
         <v>214</v>
       </c>
-      <c r="B106" s="431"/>
-      <c r="C106" s="431"/>
+      <c r="B106" s="418"/>
+      <c r="C106" s="418"/>
       <c r="D106" s="359" t="s">
         <v>212</v>
       </c>
@@ -29971,16 +29971,16 @@
     <sortCondition ref="B37"/>
   </sortState>
   <mergeCells count="10">
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
     <mergeCell ref="A95:C95"/>
     <mergeCell ref="A101:C101"/>
     <mergeCell ref="A106:C106"/>
     <mergeCell ref="A93:C93"/>
     <mergeCell ref="B35:E35"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -29995,7 +29995,7 @@
   </sheetPr>
   <dimension ref="A1:M212"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -30015,46 +30015,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="26.25">
-      <c r="A1" s="433" t="s">
+      <c r="A1" s="436" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="434"/>
-      <c r="C1" s="434"/>
-      <c r="D1" s="434"/>
-      <c r="E1" s="435"/>
+      <c r="B1" s="437"/>
+      <c r="C1" s="437"/>
+      <c r="D1" s="437"/>
+      <c r="E1" s="438"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:13" ht="20.25">
-      <c r="A2" s="442" t="s">
+      <c r="A2" s="445" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="443"/>
-      <c r="C2" s="443"/>
-      <c r="D2" s="443"/>
-      <c r="E2" s="444"/>
+      <c r="B2" s="446"/>
+      <c r="C2" s="446"/>
+      <c r="D2" s="446"/>
+      <c r="E2" s="447"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:13" ht="23.25">
-      <c r="A3" s="436" t="s">
+      <c r="A3" s="439" t="s">
         <v>268</v>
       </c>
-      <c r="B3" s="437"/>
-      <c r="C3" s="437"/>
-      <c r="D3" s="437"/>
-      <c r="E3" s="438"/>
+      <c r="B3" s="440"/>
+      <c r="C3" s="440"/>
+      <c r="D3" s="440"/>
+      <c r="E3" s="441"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:13" ht="23.25">
-      <c r="A4" s="445" t="s">
+      <c r="A4" s="448" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="446"/>
-      <c r="C4" s="446"/>
-      <c r="D4" s="446"/>
-      <c r="E4" s="447"/>
+      <c r="B4" s="449"/>
+      <c r="C4" s="449"/>
+      <c r="D4" s="449"/>
+      <c r="E4" s="450"/>
       <c r="F4" s="5"/>
       <c r="G4" s="40"/>
     </row>
@@ -30174,10 +30174,10 @@
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="205"/>
-      <c r="K10" s="448" t="s">
+      <c r="K10" s="433" t="s">
         <v>244</v>
       </c>
-      <c r="L10" s="448"/>
+      <c r="L10" s="433"/>
       <c r="M10" s="381">
         <f>M8-M9</f>
         <v>2395155</v>
@@ -30220,10 +30220,10 @@
         <v>38</v>
       </c>
       <c r="G12" s="205"/>
-      <c r="K12" s="448" t="s">
+      <c r="K12" s="433" t="s">
         <v>244</v>
       </c>
-      <c r="L12" s="448"/>
+      <c r="L12" s="433"/>
       <c r="M12" s="381">
         <f>M10+M11</f>
         <v>2801314</v>
@@ -30263,10 +30263,10 @@
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="230"/>
-      <c r="K14" s="448" t="s">
+      <c r="K14" s="433" t="s">
         <v>248</v>
       </c>
-      <c r="L14" s="448"/>
+      <c r="L14" s="433"/>
       <c r="M14" s="381">
         <f>M13+M12</f>
         <v>2894794</v>
@@ -30289,10 +30289,10 @@
       <c r="E16" s="274"/>
       <c r="F16" s="5"/>
       <c r="G16" s="12"/>
-      <c r="K16" s="449" t="s">
+      <c r="K16" s="434" t="s">
         <v>249</v>
       </c>
-      <c r="L16" s="449"/>
+      <c r="L16" s="434"/>
       <c r="M16" s="383">
         <v>2943313</v>
       </c>
@@ -30318,10 +30318,10 @@
         <f>B17-E17</f>
         <v>0</v>
       </c>
-      <c r="K17" s="450" t="s">
+      <c r="K17" s="435" t="s">
         <v>250</v>
       </c>
-      <c r="L17" s="450"/>
+      <c r="L17" s="435"/>
       <c r="M17" s="382">
         <f>M16-M14</f>
         <v>48519</v>
@@ -30339,13 +30339,13 @@
       <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:13" ht="23.25" thickBot="1">
-      <c r="A19" s="439" t="s">
+      <c r="A19" s="442" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="440"/>
-      <c r="C19" s="440"/>
-      <c r="D19" s="440"/>
-      <c r="E19" s="441"/>
+      <c r="B19" s="443"/>
+      <c r="C19" s="443"/>
+      <c r="D19" s="443"/>
+      <c r="E19" s="444"/>
       <c r="F19" s="5"/>
       <c r="G19" s="8"/>
     </row>
@@ -31481,16 +31481,16 @@
     <sortCondition ref="D20"/>
   </sortState>
   <mergeCells count="10">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A4:E4"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="K12:L12"/>
     <mergeCell ref="K14:L14"/>
     <mergeCell ref="K16:L16"/>
     <mergeCell ref="K17:L17"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A4:E4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.94488188976377963" bottom="0" header="0" footer="0"/>
